--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,46 +58,46 @@
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
@@ -106,19 +106,19 @@
     <t>money</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
+    <t>could</t>
   </si>
   <si>
     <t>better</t>
@@ -127,22 +127,19 @@
     <t>product</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>much</t>
   </si>
   <si>
     <t>little</t>
@@ -181,13 +178,13 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L3">
         <v>46</v>
       </c>
-      <c r="K3">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
       <c r="M3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7526881720430108</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,37 +776,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7427184466019418</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
         <v>0.546875</v>
@@ -879,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>0.463768115942029</v>
@@ -929,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7094594594594594</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.3786885245901639</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L9">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M9">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>758</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6041666666666666</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.3342898134863702</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="L10">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M10">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.2655601659751037</v>
+        <v>0.2987551867219917</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5966386554621849</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5925925925925926</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.2262996941896024</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L13">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>253</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5301204819277109</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5079365079365079</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.201058201058201</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4960629921259843</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.1365461847389558</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4840579710144928</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C17">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,31 +1344,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.1071115013169447</v>
+        <v>0.1070175438596491</v>
       </c>
       <c r="L17">
         <v>122</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4631578947368421</v>
+        <v>0.375</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,31 +1394,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.06298701298701298</v>
+        <v>0.05256327060350422</v>
       </c>
       <c r="L18">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1443</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.390625</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1455,13 +1452,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3613861386138614</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1481,13 +1478,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3483146067415731</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1499,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1507,13 +1504,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3412322274881517</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C22">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1533,13 +1530,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1551,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1559,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2436708860759494</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1585,13 +1582,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2319587628865979</v>
+        <v>0.215</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1611,25 +1608,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.225</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>155</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1637,13 +1634,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2181008902077151</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C27">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>527</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1663,13 +1660,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.213768115942029</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C28">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1681,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1689,13 +1686,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.189873417721519</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>256</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1715,13 +1712,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1542056074766355</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1741,13 +1738,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1541850220264317</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1759,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1767,25 +1764,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1440922190201729</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1793,25 +1790,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1401098901098901</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1819,25 +1816,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1336032388663968</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1845,25 +1842,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.112781954887218</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>236</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1871,25 +1868,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08580858085808581</v>
+        <v>0.07962529274004684</v>
       </c>
       <c r="C36">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="F36">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>554</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1897,25 +1894,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08450704225352113</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>325</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1923,51 +1920,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.06904231625835189</v>
+        <v>0.03924050632911392</v>
       </c>
       <c r="C38">
         <v>31</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.04689480354879594</v>
-      </c>
-      <c r="C39">
-        <v>37</v>
-      </c>
-      <c r="D39">
-        <v>42</v>
-      </c>
-      <c r="E39">
-        <v>0.12</v>
-      </c>
-      <c r="F39">
-        <v>0.88</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>752</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
